--- a/src/test/resources/ExcelData/UserRegData.xlsx
+++ b/src/test/resources/ExcelData/UserRegData.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreej\eclipse- DSALGO\DS-ALGO\src\test\resources\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5104D7E-0E53-40D1-9BA7-A90302E5D314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0D44F444-054F-4351-98DA-633D4BF79FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3247" yWindow="3247" windowWidth="16200" windowHeight="9315" activeTab="2" xr2:uid="{DAA46405-1568-4D3D-9B09-5FCA782EBB91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DAA46405-1568-4D3D-9B09-5FCA782EBB91}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="pythonCode " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -493,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2F5F0B-957B-4EC2-AF2A-ABB362953C82}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +597,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -677,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7899FCC8-E0E7-4A96-AA9A-6C49307782C2}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
